--- a/data/trans_orig/P16B97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B97-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4721F285-8582-4B82-A213-C3C90548396C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F723FAD4-4025-43F7-B0DE-16C2AC62172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22499B92-CD3F-4E23-82F7-7E963B457F8B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED88E9DF-000E-44E3-8BB7-0FA13BD0D2FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="212">
   <si>
     <t>Población según si dicho medicamento fue recetado por el médico en 2007 (Tasa respuesta: 3,24%)</t>
   </si>
@@ -112,25 +112,25 @@
     <t>96,08%</t>
   </si>
   <si>
-    <t>77,79%</t>
+    <t>80,57%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>83,97%</t>
+    <t>83,42%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>22,21%</t>
+    <t>19,43%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>16,03%</t>
+    <t>16,58%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -211,7 +211,7 @@
     <t>98,72%</t>
   </si>
   <si>
-    <t>93,7%</t>
+    <t>94,61%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -226,7 +226,7 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>6,3%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>97,51%</t>
@@ -235,13 +235,13 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,21%</t>
+    <t>95,09%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -250,13 +250,13 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -277,7 +277,7 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>73,65%</t>
+    <t>74,25%</t>
   </si>
   <si>
     <t>14,11%</t>
@@ -292,7 +292,7 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>26,35%</t>
+    <t>25,75%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -301,7 +301,7 @@
     <t>89,79%</t>
   </si>
   <si>
-    <t>74,06%</t>
+    <t>72,27%</t>
   </si>
   <si>
     <t>97,43%</t>
@@ -310,10 +310,10 @@
     <t>94,3%</t>
   </si>
   <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -325,16 +325,16 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>25,94%</t>
+    <t>27,73%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -361,13 +361,13 @@
     <t>97,14%</t>
   </si>
   <si>
-    <t>89,52%</t>
+    <t>90,68%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>93,06%</t>
+    <t>93,54%</t>
   </si>
   <si>
     <t>4,55%</t>
@@ -376,19 +376,19 @@
     <t>2,86%</t>
   </si>
   <si>
-    <t>10,48%</t>
+    <t>9,32%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>6,94%</t>
+    <t>6,46%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>95,04%</t>
+    <t>93,86%</t>
   </si>
   <si>
     <t>98,16%</t>
@@ -397,13 +397,13 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,73%</t>
+    <t>97,58%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>6,14%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -412,7 +412,7 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>98,71%</t>
@@ -436,28 +436,31 @@
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,28%</t>
+    <t>98,32%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
+    <t>97,25%</t>
+  </si>
+  <si>
     <t>99,62%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -466,13 +469,16 @@
     <t>0,38%</t>
   </si>
   <si>
+    <t>2,75%</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 8,43%)</t>
@@ -481,37 +487,37 @@
     <t>83,71%</t>
   </si>
   <si>
-    <t>33,2%</t>
+    <t>33,12%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>48,95%</t>
+    <t>56,83%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>60,0%</t>
+    <t>60,26%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>66,8%</t>
+    <t>66,88%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>51,05%</t>
+    <t>43,17%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>40,0%</t>
+    <t>39,74%</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -541,25 +547,25 @@
     <t>97,48%</t>
   </si>
   <si>
-    <t>87,79%</t>
+    <t>86,95%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,52%</t>
+    <t>96,15%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>12,21%</t>
+    <t>13,05%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -568,13 +574,13 @@
     <t>98,4%</t>
   </si>
   <si>
-    <t>91,92%</t>
+    <t>93,23%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>94,91%</t>
+    <t>95,91%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -583,13 +589,13 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>8,08%</t>
+    <t>6,77%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>4,09%</t>
   </si>
   <si>
     <t>98,33%</t>
@@ -598,16 +604,16 @@
     <t>96,45%</t>
   </si>
   <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>91,46%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>95,41%</t>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -616,58 +622,58 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>8,54%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>96,8%</t>
+    <t>96,74%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,2%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0589FF2-1031-49D8-8A36-B4718A29F3DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5CEA94-88AA-4B4F-BBA7-BD8C4C890F86}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2298,7 +2304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD086878-DC51-4211-9A53-71B98D37C622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDA4BDC-DEA8-4891-8BED-336F99558066}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3370,10 +3376,10 @@
         <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>832</v>
@@ -3382,13 +3388,13 @@
         <v>901239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3409,13 @@
         <v>1783</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3418,13 +3424,13 @@
         <v>7027</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -3433,13 +3439,13 @@
         <v>8810</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,7 +3523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99C8A5B-F4D5-48BE-8C6F-BCD449149986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEE9352-CFC3-417E-B95A-12C5AA76D5F4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3534,7 +3540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3641,10 +3647,10 @@
         <v>5173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -3656,10 +3662,10 @@
         <v>11353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -3671,10 +3677,10 @@
         <v>16525</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3692,13 +3698,13 @@
         <v>1007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3707,13 +3713,13 @@
         <v>1593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3722,13 +3728,13 @@
         <v>2600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,7 +3820,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3829,7 +3835,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3868,7 +3874,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3883,7 +3889,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3975,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3984,7 +3990,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4023,7 +4029,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4038,7 +4044,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,10 +4112,10 @@
         <v>42685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4124,7 +4130,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4139,7 +4145,7 @@
         <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4157,13 +4163,13 @@
         <v>1102</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4178,7 +4184,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4193,7 +4199,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4270,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4276,10 +4282,10 @@
         <v>67630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4291,10 +4297,10 @@
         <v>107323</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4318,7 +4324,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4327,13 +4333,13 @@
         <v>1097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4342,13 +4348,13 @@
         <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,7 +4425,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4431,13 +4437,13 @@
         <v>130250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="M19" s="7">
         <v>222</v>
@@ -4446,13 +4452,13 @@
         <v>241018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4479,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4482,13 +4488,13 @@
         <v>4797</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4497,13 +4503,13 @@
         <v>4797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,10 +4577,10 @@
         <v>229185</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -4586,13 +4592,13 @@
         <v>359399</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>546</v>
@@ -4601,13 +4607,13 @@
         <v>588583</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4628,13 @@
         <v>2109</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -4637,13 +4643,13 @@
         <v>7487</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -4652,13 +4658,13 @@
         <v>9597</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B97-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F723FAD4-4025-43F7-B0DE-16C2AC62172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9E8042C-765B-44A6-BDC2-BC38A44C974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED88E9DF-000E-44E3-8BB7-0FA13BD0D2FF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A6A2084-6FE3-4C50-B3A9-4276DCE0C2DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="206">
   <si>
     <t>Población según si dicho medicamento fue recetado por el médico en 2007 (Tasa respuesta: 3,24%)</t>
   </si>
@@ -112,25 +112,25 @@
     <t>96,08%</t>
   </si>
   <si>
-    <t>80,57%</t>
+    <t>79,69%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>83,42%</t>
+    <t>84,15%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>19,43%</t>
+    <t>20,31%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>16,58%</t>
+    <t>15,85%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -205,13 +205,13 @@
     <t>97,2%</t>
   </si>
   <si>
-    <t>85,44%</t>
+    <t>85,6%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>94,61%</t>
+    <t>91,58%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -220,13 +220,13 @@
     <t>2,8%</t>
   </si>
   <si>
-    <t>14,56%</t>
+    <t>14,4%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>5,39%</t>
+    <t>8,42%</t>
   </si>
   <si>
     <t>97,51%</t>
@@ -235,7 +235,7 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>94,73%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -250,7 +250,7 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>5,27%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -268,7 +268,7 @@
     <t>85,89%</t>
   </si>
   <si>
-    <t>41,77%</t>
+    <t>42,05%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -277,13 +277,13 @@
     <t>94,87%</t>
   </si>
   <si>
-    <t>74,25%</t>
+    <t>78,39%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>58,23%</t>
+    <t>57,95%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -292,7 +292,7 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>25,75%</t>
+    <t>21,61%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -301,19 +301,19 @@
     <t>89,79%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -322,19 +322,19 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -361,13 +361,13 @@
     <t>97,14%</t>
   </si>
   <si>
-    <t>90,68%</t>
+    <t>89,29%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>93,54%</t>
+    <t>92,98%</t>
   </si>
   <si>
     <t>4,55%</t>
@@ -376,19 +376,19 @@
     <t>2,86%</t>
   </si>
   <si>
-    <t>9,32%</t>
+    <t>10,71%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>93,86%</t>
+    <t>93,82%</t>
   </si>
   <si>
     <t>98,16%</t>
@@ -397,13 +397,13 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,58%</t>
+    <t>97,5%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>6,14%</t>
+    <t>6,18%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -412,7 +412,7 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>98,71%</t>
@@ -436,88 +436,88 @@
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,32%</t>
+    <t>98,36%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>1,64%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 8,43%)</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Población según si dicho medicamento fue recetado por el médico en 2016 (Tasa respuesta: 8,43%)</t>
   </si>
   <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>33,12%</t>
+    <t>33,73%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>56,83%</t>
+    <t>48,67%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>60,26%</t>
+    <t>56,0%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>66,88%</t>
+    <t>66,27%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>43,17%</t>
+    <t>51,33%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>39,74%</t>
+    <t>44,0%</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -535,37 +535,25 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -574,13 +562,13 @@
     <t>98,4%</t>
   </si>
   <si>
-    <t>93,23%</t>
+    <t>90,13%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>95,91%</t>
+    <t>94,49%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -589,13 +577,13 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>6,77%</t>
+    <t>9,87%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>4,09%</t>
+    <t>5,51%</t>
   </si>
   <si>
     <t>98,33%</t>
@@ -604,16 +592,19 @@
     <t>96,45%</t>
   </si>
   <si>
-    <t>91,46%</t>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>1,67%</t>
@@ -622,58 +613,49 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>8,54%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5CEA94-88AA-4B4F-BBA7-BD8C4C890F86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A0D5B4-74DD-4A7E-8867-D2BC71290DCD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2304,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDA4BDC-DEA8-4891-8BED-336F99558066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EF0714-B3F6-483B-B8FB-17B2E80ABCC5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3523,7 +3505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEE9352-CFC3-417E-B95A-12C5AA76D5F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44CCB44-0857-48DF-918A-B63A1A2EC190}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3990,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4029,7 +4011,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4044,7 +4026,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,10 +4094,10 @@
         <v>42685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -4130,7 +4112,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4145,7 +4127,7 @@
         <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -4163,13 +4145,13 @@
         <v>1102</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4184,7 +4166,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4199,7 +4181,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,7 +4252,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4282,10 +4264,10 @@
         <v>67630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -4297,10 +4279,10 @@
         <v>107323</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -4324,7 +4306,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4333,13 +4315,13 @@
         <v>1097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4348,13 +4330,13 @@
         <v>1097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,7 +4407,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -4437,13 +4419,13 @@
         <v>130250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>222</v>
@@ -4452,13 +4434,13 @@
         <v>241018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,7 +4461,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4488,13 +4470,13 @@
         <v>4797</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4503,13 +4485,13 @@
         <v>4797</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,10 +4559,10 @@
         <v>229185</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -4592,13 +4574,13 @@
         <v>359399</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>546</v>
@@ -4607,13 +4589,13 @@
         <v>588583</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4610,13 @@
         <v>2109</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -4643,13 +4625,13 @@
         <v>7487</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -4658,13 +4640,13 @@
         <v>9597</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
